--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -566,12 +566,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12,13,14</t>
+          <t>3,4,5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>607-208</t>
+          <t>607-110</t>
         </is>
       </c>
     </row>
@@ -621,10 +621,8 @@
           <t>정수론</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C6" t="n">
+        <v>30</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -633,12 +631,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>월,수</t>
+          <t>화,목</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0, 1, 2</t>
+          <t>0,1,2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -678,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>607-208</t>
+          <t>607-207</t>
         </is>
       </c>
     </row>
@@ -901,11 +899,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>26</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -928,17 +936,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>화,목</t>
+          <t>월,수</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9,10,11</t>
+          <t>12,13,14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>607-110</t>
+          <t>607-208</t>
         </is>
       </c>
     </row>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3,4,5</t>
+          <t>12,13,14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12,13,14</t>
+          <t>9,10,11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>월,수</t>
+          <t>화,목</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3,4,5</t>
+          <t>0,1,2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>607-110</t>
+          <t>607-208</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9,10,11</t>
+          <t>15,16,17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>607-110</t>
+          <t>607-208</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>화,목</t>
+          <t>월,수</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>607-110</t>
+          <t>607-207</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12,13,14</t>
+          <t>9,10,11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>화,목</t>
+          <t>월,수</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15,16,17</t>
+          <t>12,13,14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -734,11 +734,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>26</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -794,21 +804,11 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0,1,2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>26</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3,4,5</t>
+          <t>12,13,14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>607-110</t>
+          <t>607-311</t>
         </is>
       </c>
     </row>
@@ -899,21 +899,11 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>26</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -936,17 +926,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>월,수</t>
+          <t>화,목</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>12,13,14</t>
+          <t>9,10,11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>607-208</t>
+          <t>607-110</t>
         </is>
       </c>
     </row>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>정일효</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>위상수학(I)</t>
+          <t>미분방정식(I)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,31 +489,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>위상수학특강</t>
+          <t>벡터해석</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -524,31 +514,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>정일효</t>
+          <t>김준교</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>미분방정식(I)</t>
+          <t>정수론</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -559,31 +539,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0,1,2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>이동희</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>선형대수학(I)</t>
+          <t>위상수학(I)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -594,31 +564,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>15,16,17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>김준교</t>
+          <t>이동희</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>정수론</t>
+          <t>선형대수학(I)</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -629,31 +589,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0,1,2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>벡터해석</t>
+          <t>해석학(I)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -661,34 +611,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>수학입문</t>
+          <t>대수학(I)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -696,24 +636,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>전공기초</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -734,31 +664,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>최영준</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>복소변수함수론(II)</t>
+          <t>미분기하학(II)</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -769,31 +689,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>최영준</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>미분기하학(II)</t>
+          <t>복소변수함수론(II)</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -813,12 +723,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>해석학(I)</t>
+          <t>편미분방정식</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -826,34 +736,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>607-311</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>26</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>편미분방정식</t>
+          <t>위상수학특강</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -864,31 +764,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>607-314</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>26</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>대수학(I)</t>
+          <t>수학입문</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -896,7 +786,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>전공필수</t>
+          <t>전공기초</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -924,21 +814,11 @@
           <t>전공기초</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>26</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,6 +820,31 @@
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>이용훈</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>실변수함수론(I)</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>26</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>정일효</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>미분방정식(I)</t>
+          <t>실변수함수론(I)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,21 +489,31 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>벡터해석</t>
+          <t>위상수학(I)</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -511,24 +521,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>26</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>김준교</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>정수론</t>
+          <t>위상수학특강</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -536,24 +556,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>26</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>정일효</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>위상수학(I)</t>
+          <t>미분방정식(I)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -564,11 +594,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>26</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -589,21 +629,31 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>26</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15,16,17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>김준교</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>해석학(I)</t>
+          <t>정수론</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -614,21 +664,31 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>26</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대수학(I)</t>
+          <t>벡터해석</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -636,24 +696,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>26</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>윤지훈</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>보험수학입문</t>
+          <t>수학입문</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -661,24 +731,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>26</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>윤지훈</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>미분기하학(II)</t>
+          <t>보험수학입문</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -689,11 +769,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>26</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -714,21 +804,31 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>26</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>편미분방정식</t>
+          <t>미분기하학(II)</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -739,21 +839,31 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>26</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>위상수학특강</t>
+          <t>해석학(I)</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -761,24 +871,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>26</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0,1,2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>수학입문</t>
+          <t>편미분방정식</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -786,14 +906,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>전공기초</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>26</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>607-314</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -803,15 +933,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>수학(I)</t>
+          <t>대수학(I)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>전공기초</t>
+          <t>전공필수</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -823,27 +953,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>실변수함수론(I)</t>
+          <t>수학(I)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>26</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>정일효</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>실변수함수론(I)</t>
+          <t>미분방정식(I)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,31 +489,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>위상수학(I)</t>
+          <t>벡터해석</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -521,34 +511,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>김준교</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>위상수학특강</t>
+          <t>정수론</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -556,34 +536,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>정일효</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>미분방정식(I)</t>
+          <t>위상수학(I)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -594,21 +564,11 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -629,31 +589,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15,16,17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>김준교</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>정수론</t>
+          <t>해석학(I)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,31 +614,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>벡터해석</t>
+          <t>대수학(I)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -696,34 +636,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>윤지훈</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>수학입문</t>
+          <t>보험수학입문</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -731,34 +661,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>전공기초</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>윤지훈</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>보험수학입문</t>
+          <t>미분기하학(II)</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -769,21 +689,11 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -804,31 +714,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>26</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>미분기하학(II)</t>
+          <t>편미분방정식</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -839,31 +739,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>26</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>해석학(I)</t>
+          <t>위상수학특강</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -871,34 +761,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0,1,2</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>26</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>편미분방정식</t>
+          <t>수학입문</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -906,24 +786,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>607-314</t>
-        </is>
-      </c>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>26</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -933,15 +803,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>대수학(I)</t>
+          <t>수학(I)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>전공필수</t>
+          <t>전공기초</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -953,37 +823,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>수학(I)</t>
+          <t>실변수함수론(I)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>전공기초</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>26</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>607-208</t>
+          <t>607-110</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12,13,14</t>
+          <t>9,10,11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9,10,11</t>
+          <t>3,4,5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>607-208</t>
+          <t>607-207</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>화,목</t>
+          <t>월,수</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>월,수</t>
+          <t>화,목</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>15,16,17</t>
+          <t>12,13,14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>월,수</t>
+          <t>화,목</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9,10,11</t>
+          <t>0,1,2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>607-207</t>
+          <t>607-208</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>월,수</t>
+          <t>화,목</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3,4,5</t>
+          <t>15,16,17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>화,목</t>
+          <t>월,수</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3,4,5</t>
+          <t>0,1,2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3,4,5</t>
+          <t>9,10,11</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>화,목</t>
+          <t>월,수</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9,10,11</t>
+          <t>15,16,17</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0,1,2</t>
+          <t>3,4,5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>607-208</t>
+          <t>607-311</t>
         </is>
       </c>
     </row>
@@ -969,21 +969,11 @@
           <t>전공기초</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>26</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>정일효</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>실변수함수론(I)</t>
+          <t>미분방정식(I)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,31 +489,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>위상수학(I)</t>
+          <t>벡터해석</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -521,34 +511,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>김준교</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>위상수학특강</t>
+          <t>정수론</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -556,34 +536,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>정일효</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>미분방정식(I)</t>
+          <t>위상수학(I)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -594,21 +564,11 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -629,31 +589,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>김준교</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>정수론</t>
+          <t>해석학(I)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,31 +614,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0,1,2</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>벡터해석</t>
+          <t>대수학(I)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -696,34 +636,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>15,16,17</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>윤지훈</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>수학입문</t>
+          <t>보험수학입문</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -731,34 +661,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>전공기초</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>윤지훈</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>보험수학입문</t>
+          <t>미분기하학(II)</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -769,21 +689,11 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0,1,2</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -804,31 +714,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>26</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>미분기하학(II)</t>
+          <t>편미분방정식</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -839,31 +739,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>15,16,17</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>26</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>해석학(I)</t>
+          <t>위상수학특강</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -871,34 +761,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>607-311</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>26</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>편미분방정식</t>
+          <t>수학입문</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -906,24 +786,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>607-314</t>
-        </is>
-      </c>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>26</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -933,15 +803,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>대수학(I)</t>
+          <t>수학(I)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>전공필수</t>
+          <t>전공기초</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -953,20 +823,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>수학(I)</t>
+          <t>실변수함수론(I)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>전공기초</t>
+          <t>전공필수</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>정일효</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>미분방정식(I)</t>
+          <t>실변수함수론(I)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,21 +489,31 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>벡터해석</t>
+          <t>위상수학(I)</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -511,24 +521,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>26</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>김준교</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>정수론</t>
+          <t>위상수학특강</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -536,24 +556,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>26</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>정일효</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>위상수학(I)</t>
+          <t>미분방정식(I)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -564,11 +594,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>26</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -589,21 +629,31 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>26</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>김준교</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>해석학(I)</t>
+          <t>정수론</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -614,21 +664,31 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>26</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대수학(I)</t>
+          <t>벡터해석</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -636,24 +696,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>26</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>윤지훈</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>보험수학입문</t>
+          <t>수학입문</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -661,24 +731,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>26</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>윤지훈</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>미분기하학(II)</t>
+          <t>보험수학입문</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -689,11 +769,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>26</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -714,21 +804,31 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>26</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>편미분방정식</t>
+          <t>미분기하학(II)</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -739,21 +839,31 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>26</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>15,16,17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>위상수학특강</t>
+          <t>해석학(I)</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -761,24 +871,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>26</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>15,16,17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>수학입문</t>
+          <t>편미분방정식</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -786,14 +906,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>전공기초</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>26</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>607-314</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -803,15 +933,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>수학(I)</t>
+          <t>대수학(I)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>전공기초</t>
+          <t>전공필수</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -823,20 +953,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>실변수함수론(I)</t>
+          <t>수학(I)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>전공필수</t>
+          <t>전공기초</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>정일효</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>실변수함수론(I)</t>
+          <t>미분방정식(I)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,31 +489,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>위상수학(I)</t>
+          <t>벡터해석</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -521,34 +511,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>김준교</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>위상수학특강</t>
+          <t>정수론</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -556,34 +536,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>정일효</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>미분방정식(I)</t>
+          <t>위상수학(I)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -594,21 +564,11 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -629,31 +589,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>김준교</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>정수론</t>
+          <t>해석학(I)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,31 +614,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>벡터해석</t>
+          <t>대수학(I)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -696,34 +636,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>윤지훈</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>수학입문</t>
+          <t>보험수학입문</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -731,34 +661,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>전공기초</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>윤지훈</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>보험수학입문</t>
+          <t>미분기하학(II)</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -769,21 +689,11 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -804,31 +714,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>26</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>미분기하학(II)</t>
+          <t>편미분방정식</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -839,31 +739,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>15,16,17</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>26</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>해석학(I)</t>
+          <t>위상수학특강</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -871,34 +761,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>15,16,17</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>26</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>편미분방정식</t>
+          <t>수학입문</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -906,24 +786,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>607-314</t>
-        </is>
-      </c>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>26</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -933,15 +803,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>대수학(I)</t>
+          <t>수학(I)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>전공필수</t>
+          <t>전공기초</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -953,20 +823,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>수학(I)</t>
+          <t>실변수함수론(I)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>전공기초</t>
+          <t>전공필수</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>정일효</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>미분방정식(I)</t>
+          <t>실변수함수론(I)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,21 +489,31 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>벡터해석</t>
+          <t>위상수학(I)</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -511,24 +521,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>26</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>김준교</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>정수론</t>
+          <t>위상수학특강</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -536,24 +556,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>26</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>정일효</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>위상수학(I)</t>
+          <t>미분방정식(I)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -564,11 +594,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>26</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0,1,2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -589,21 +629,31 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>26</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15,16,17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>김준교</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>해석학(I)</t>
+          <t>정수론</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -614,21 +664,31 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>26</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0,1,2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대수학(I)</t>
+          <t>벡터해석</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -636,24 +696,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>26</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>윤지훈</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>보험수학입문</t>
+          <t>수학입문</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -661,24 +731,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>26</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>윤지훈</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>미분기하학(II)</t>
+          <t>보험수학입문</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -689,11 +769,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>26</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>607-109</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -714,21 +804,31 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>26</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>편미분방정식</t>
+          <t>미분기하학(II)</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -739,21 +839,31 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>26</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3,4,5</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>위상수학특강</t>
+          <t>해석학(I)</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -761,24 +871,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>26</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>607-311</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>수학입문</t>
+          <t>편미분방정식</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -786,14 +906,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>전공기초</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>26</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>15,16,17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -803,47 +933,67 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>수학(I)</t>
+          <t>대수학(I)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>전공기초</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>26</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>607-110</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>실변수함수론(I)</t>
+          <t>수학(I)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>26</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>12,13,14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>607-208</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>정일효</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>실변수함수론(I)</t>
+          <t>미분방정식(I)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,31 +489,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>위상수학(I)</t>
+          <t>벡터해석</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -521,34 +511,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이상율</t>
+          <t>김준교</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>위상수학특강</t>
+          <t>정수론</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -556,34 +536,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>정일효</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>미분방정식(I)</t>
+          <t>위상수학(I)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -594,21 +564,11 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0,1,2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -629,31 +589,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15,16,17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>김준교</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>정수론</t>
+          <t>해석학(I)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,31 +614,21 @@
           <t>전공필수</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0,1,2</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>벡터해석</t>
+          <t>대수학(I)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -696,34 +636,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>표준철</t>
+          <t>윤지훈</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>수학입문</t>
+          <t>보험수학입문</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -731,34 +661,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>전공기초</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>윤지훈</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>보험수학입문</t>
+          <t>미분기하학(II)</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -769,21 +689,11 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>607-109</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -804,31 +714,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>26</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>미분기하학(II)</t>
+          <t>편미분방정식</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -839,31 +739,21 @@
           <t>전공선택</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3,4,5</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>26</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>이상율</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>해석학(I)</t>
+          <t>위상수학특강</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -871,34 +761,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>607-311</t>
-        </is>
-      </c>
+          <t>전공선택</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>26</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>표준철</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>편미분방정식</t>
+          <t>수학입문</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -906,24 +786,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>전공선택</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>15,16,17</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>26</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -933,67 +803,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>대수학(I)</t>
+          <t>수학(I)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>전공필수</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>607-110</t>
-        </is>
-      </c>
+          <t>전공기초</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>26</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>수학(I)</t>
+          <t>실변수함수론(I)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>전공기초</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>12,13,14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>607-208</t>
-        </is>
-      </c>
+          <t>전공필수</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>26</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>교수명</t>
   </si>
@@ -37,87 +37,87 @@
     <t>강의실명</t>
   </si>
   <si>
+    <t>이용훈</t>
+  </si>
+  <si>
+    <t>이상율</t>
+  </si>
+  <si>
     <t>정일효</t>
   </si>
   <si>
+    <t>이동희</t>
+  </si>
+  <si>
+    <t>김준교</t>
+  </si>
+  <si>
     <t>표준철</t>
   </si>
   <si>
-    <t>김준교</t>
-  </si>
-  <si>
-    <t>이상율</t>
-  </si>
-  <si>
-    <t>이동희</t>
+    <t>윤지훈</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
+    <t>장동훈</t>
   </si>
   <si>
     <t>김상일</t>
   </si>
   <si>
+    <t>이미경</t>
+  </si>
+  <si>
     <t>김영락</t>
   </si>
   <si>
-    <t>윤지훈</t>
-  </si>
-  <si>
-    <t>장동훈</t>
-  </si>
-  <si>
-    <t>최영준</t>
-  </si>
-  <si>
-    <t>이미경</t>
-  </si>
-  <si>
-    <t>이용훈</t>
+    <t>실변수함수론(I)</t>
+  </si>
+  <si>
+    <t>위상수학(I)</t>
+  </si>
+  <si>
+    <t>위상수학특강</t>
   </si>
   <si>
     <t>미분방정식(I)</t>
   </si>
   <si>
+    <t>선형대수학(I)</t>
+  </si>
+  <si>
+    <t>정수론</t>
+  </si>
+  <si>
     <t>벡터해석</t>
   </si>
   <si>
-    <t>정수론</t>
-  </si>
-  <si>
-    <t>위상수학(I)</t>
-  </si>
-  <si>
-    <t>선형대수학(I)</t>
+    <t>수학입문</t>
+  </si>
+  <si>
+    <t>보험수학입문</t>
+  </si>
+  <si>
+    <t>복소변수함수론(II)</t>
+  </si>
+  <si>
+    <t>미분기하학(II)</t>
   </si>
   <si>
     <t>해석학(I)</t>
   </si>
   <si>
+    <t>편미분방정식</t>
+  </si>
+  <si>
     <t>대수학(I)</t>
   </si>
   <si>
-    <t>보험수학입문</t>
-  </si>
-  <si>
-    <t>미분기하학(II)</t>
-  </si>
-  <si>
-    <t>복소변수함수론(II)</t>
-  </si>
-  <si>
-    <t>편미분방정식</t>
-  </si>
-  <si>
-    <t>위상수학특강</t>
-  </si>
-  <si>
-    <t>수학입문</t>
-  </si>
-  <si>
     <t>수학(I)</t>
   </si>
   <si>
-    <t>실변수함수론(I)</t>
-  </si>
-  <si>
     <t>전공필수</t>
   </si>
   <si>
@@ -125,6 +125,39 @@
   </si>
   <si>
     <t>전공기초</t>
+  </si>
+  <si>
+    <t>화,목</t>
+  </si>
+  <si>
+    <t>월,수</t>
+  </si>
+  <si>
+    <t>9,10,11</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>15,16,17</t>
+  </si>
+  <si>
+    <t>12,13,14</t>
+  </si>
+  <si>
+    <t>607-208</t>
+  </si>
+  <si>
+    <t>607-207</t>
+  </si>
+  <si>
+    <t>607-110</t>
+  </si>
+  <si>
+    <t>607-311</t>
   </si>
 </sst>
 </file>
@@ -524,8 +557,14 @@
       <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="F2">
-        <v>26</v>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -539,15 +578,21 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -556,15 +601,21 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -575,13 +626,19 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="F5">
-        <v>26</v>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -592,13 +649,19 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="F6">
-        <v>26</v>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -609,13 +672,19 @@
       <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="F7">
-        <v>26</v>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -624,15 +693,21 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -641,15 +716,21 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -660,13 +741,19 @@
       <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="F10">
-        <v>26</v>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -677,13 +764,19 @@
       <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="F11">
-        <v>26</v>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -694,13 +787,19 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="F12">
-        <v>26</v>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -709,15 +808,21 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -726,27 +831,39 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -757,10 +874,10 @@
         <v>33</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>26</v>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>교수명</t>
   </si>
@@ -76,6 +76,9 @@
     <t>실변수함수론(I)</t>
   </si>
   <si>
+    <t>대수학(I)</t>
+  </si>
+  <si>
     <t>위상수학(I)</t>
   </si>
   <si>
@@ -112,30 +115,33 @@
     <t>편미분방정식</t>
   </si>
   <si>
-    <t>대수학(I)</t>
-  </si>
-  <si>
     <t>수학(I)</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>전공필수</t>
   </si>
   <si>
+    <t>전공기초</t>
+  </si>
+  <si>
     <t>전공선택</t>
   </si>
   <si>
-    <t>전공기초</t>
+    <t>월,수</t>
   </si>
   <si>
     <t>화,목</t>
   </si>
   <si>
-    <t>월,수</t>
-  </si>
-  <si>
     <t>9,10,11</t>
   </si>
   <si>
+    <t>12,13,14</t>
+  </si>
+  <si>
     <t>3,4,5</t>
   </si>
   <si>
@@ -145,19 +151,16 @@
     <t>15,16,17</t>
   </si>
   <si>
-    <t>12,13,14</t>
+    <t>607-207</t>
   </si>
   <si>
     <t>607-208</t>
   </si>
   <si>
-    <t>607-207</t>
-  </si>
-  <si>
     <t>607-110</t>
   </si>
   <si>
-    <t>607-311</t>
+    <t>607-314</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,36 +558,36 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
-        <v>30</v>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -607,7 +610,7 @@
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -615,7 +618,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -624,7 +627,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -633,12 +636,12 @@
         <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -647,21 +650,21 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -670,21 +673,21 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -696,13 +699,13 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -716,13 +719,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -730,7 +733,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -739,21 +742,21 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -762,21 +765,21 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -785,21 +788,21 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -808,13 +811,13 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
         <v>47</v>
@@ -822,7 +825,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -837,15 +840,15 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -854,16 +857,16 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -871,15 +874,38 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>26</v>
       </c>
     </row>

--- a/data/lesson_assign_under_tableview.xlsx
+++ b/data/lesson_assign_under_tableview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>교수명</t>
   </si>
@@ -37,130 +37,94 @@
     <t>강의실명</t>
   </si>
   <si>
+    <t>정일효</t>
+  </si>
+  <si>
+    <t>표준철</t>
+  </si>
+  <si>
+    <t>김준교</t>
+  </si>
+  <si>
+    <t>이상율</t>
+  </si>
+  <si>
+    <t>이동희</t>
+  </si>
+  <si>
+    <t>김상일</t>
+  </si>
+  <si>
+    <t>김영락</t>
+  </si>
+  <si>
+    <t>윤지훈</t>
+  </si>
+  <si>
+    <t>장동훈</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
+    <t>이미경</t>
+  </si>
+  <si>
     <t>이용훈</t>
   </si>
   <si>
-    <t>이상율</t>
-  </si>
-  <si>
-    <t>정일효</t>
-  </si>
-  <si>
-    <t>이동희</t>
-  </si>
-  <si>
-    <t>김준교</t>
-  </si>
-  <si>
-    <t>표준철</t>
-  </si>
-  <si>
-    <t>윤지훈</t>
-  </si>
-  <si>
-    <t>최영준</t>
-  </si>
-  <si>
-    <t>장동훈</t>
-  </si>
-  <si>
-    <t>김상일</t>
-  </si>
-  <si>
-    <t>이미경</t>
-  </si>
-  <si>
-    <t>김영락</t>
+    <t>미분방정식(I)</t>
+  </si>
+  <si>
+    <t>벡터해석</t>
+  </si>
+  <si>
+    <t>정수론</t>
+  </si>
+  <si>
+    <t>위상수학(I)</t>
+  </si>
+  <si>
+    <t>선형대수학(I)</t>
+  </si>
+  <si>
+    <t>해석학(I)</t>
+  </si>
+  <si>
+    <t>대수학(I)</t>
+  </si>
+  <si>
+    <t>보험수학입문</t>
+  </si>
+  <si>
+    <t>미분기하학(II)</t>
+  </si>
+  <si>
+    <t>복소변수함수론(II)</t>
+  </si>
+  <si>
+    <t>편미분방정식</t>
+  </si>
+  <si>
+    <t>위상수학특강</t>
+  </si>
+  <si>
+    <t>수학입문</t>
+  </si>
+  <si>
+    <t>수학(I)</t>
   </si>
   <si>
     <t>실변수함수론(I)</t>
   </si>
   <si>
-    <t>대수학(I)</t>
-  </si>
-  <si>
-    <t>위상수학(I)</t>
-  </si>
-  <si>
-    <t>위상수학특강</t>
-  </si>
-  <si>
-    <t>미분방정식(I)</t>
-  </si>
-  <si>
-    <t>선형대수학(I)</t>
-  </si>
-  <si>
-    <t>정수론</t>
-  </si>
-  <si>
-    <t>벡터해석</t>
-  </si>
-  <si>
-    <t>수학입문</t>
-  </si>
-  <si>
-    <t>보험수학입문</t>
-  </si>
-  <si>
-    <t>복소변수함수론(II)</t>
-  </si>
-  <si>
-    <t>미분기하학(II)</t>
-  </si>
-  <si>
-    <t>해석학(I)</t>
-  </si>
-  <si>
-    <t>편미분방정식</t>
-  </si>
-  <si>
-    <t>수학(I)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>전공필수</t>
   </si>
   <si>
+    <t>전공선택</t>
+  </si>
+  <si>
     <t>전공기초</t>
-  </si>
-  <si>
-    <t>전공선택</t>
-  </si>
-  <si>
-    <t>월,수</t>
-  </si>
-  <si>
-    <t>화,목</t>
-  </si>
-  <si>
-    <t>9,10,11</t>
-  </si>
-  <si>
-    <t>12,13,14</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-  </si>
-  <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>15,16,17</t>
-  </si>
-  <si>
-    <t>607-207</t>
-  </si>
-  <si>
-    <t>607-208</t>
-  </si>
-  <si>
-    <t>607-110</t>
-  </si>
-  <si>
-    <t>607-314</t>
   </si>
 </sst>
 </file>
@@ -518,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,44 +522,32 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
+      <c r="C3">
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -604,21 +556,15 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -627,21 +573,15 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -650,21 +590,15 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -673,21 +607,15 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -696,21 +624,15 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -719,21 +641,15 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -742,21 +658,15 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -765,21 +675,15 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -788,21 +692,15 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -811,21 +709,15 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -834,39 +726,27 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -874,38 +754,15 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17">
+        <v>34</v>
+      </c>
+      <c r="F16">
         <v>26</v>
       </c>
     </row>
